--- a/form-files/shared_table_b/shared_table_b.xlsx
+++ b/form-files/shared_table_b/shared_table_b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>type</t>
   </si>
@@ -76,19 +76,22 @@
     <t>schema.type</t>
   </si>
   <si>
+    <t>schema.name</t>
+  </si>
+  <si>
     <t>schema.elementType</t>
   </si>
   <si>
-    <t>schema.properties.latitude</t>
-  </si>
-  <si>
-    <t>schema.properties.longitude</t>
-  </si>
-  <si>
-    <t>schema.properties.altitude</t>
-  </si>
-  <si>
-    <t>schema.properties.accuracy</t>
+    <t>schema.properties.latitude.type</t>
+  </si>
+  <si>
+    <t>schema.properties.longitude.type</t>
+  </si>
+  <si>
+    <t>schema.properties.altitude.type</t>
+  </si>
+  <si>
+    <t>schema.properties.accuracy.type</t>
   </si>
   <si>
     <t>refrigerator_id</t>
@@ -394,11 +397,11 @@
   <cols>
     <col min="1" customWidth="1" max="1" width="21.43"/>
     <col min="2" customWidth="1" max="2" width="25.14"/>
-    <col min="3" customWidth="1" max="3" width="26.14"/>
-    <col min="4" customWidth="1" max="4" width="26.29"/>
-    <col min="5" customWidth="1" max="5" width="24.29"/>
-    <col min="6" customWidth="1" max="6" width="28.43"/>
-    <col min="7" customWidth="1" max="7" width="29.43"/>
+    <col min="4" customWidth="1" max="4" width="26.14"/>
+    <col min="5" customWidth="1" max="5" width="26.29"/>
+    <col min="6" customWidth="1" max="6" width="24.29"/>
+    <col min="7" customWidth="1" max="7" width="28.43"/>
+    <col min="8" customWidth="1" max="8" width="29.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -423,44 +426,50 @@
       <c t="s" r="G1">
         <v>24</v>
       </c>
+      <c t="s" r="H1">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="B2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="B3">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
+        <v>30</v>
+      </c>
+      <c t="s" r="B4">
+        <v>31</v>
+      </c>
+      <c t="s" r="C4">
+        <v>32</v>
+      </c>
+      <c t="s" r="D4">
+        <v>32</v>
+      </c>
+      <c t="s" r="E4">
         <v>29</v>
       </c>
-      <c t="s" r="B4">
-        <v>30</v>
-      </c>
-      <c t="s" r="C4">
-        <v>31</v>
-      </c>
-      <c t="s" r="D4">
-        <v>28</v>
-      </c>
-      <c t="s" r="E4">
-        <v>28</v>
-      </c>
       <c t="s" r="F4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="G4">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c t="s" r="H4">
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +477,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B5">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -495,31 +504,31 @@
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="1" r="A3">
+        <v>37</v>
+      </c>
+      <c t="s" s="1" r="B3">
         <v>36</v>
-      </c>
-      <c t="s" s="1" r="B3">
-        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="B4">
         <v>1</v>
@@ -527,10 +536,10 @@
     </row>
     <row r="5">
       <c t="s" s="1" r="A5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" s="1" r="B5">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/form-files/shared_table_b/shared_table_b.xlsx
+++ b/form-files/shared_table_b/shared_table_b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>type</t>
   </si>
@@ -124,10 +124,13 @@
     <t>form_id</t>
   </si>
   <si>
+    <t>refrigerators_update</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
     <t>refrigerators</t>
-  </si>
-  <si>
-    <t>table_id</t>
   </si>
   <si>
     <t>form_version</t>
@@ -523,12 +526,12 @@
         <v>37</v>
       </c>
       <c t="s" s="1" r="B3">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="B4">
         <v>1</v>
@@ -536,10 +539,10 @@
     </row>
     <row r="5">
       <c t="s" s="1" r="A5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" s="1" r="B5">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/form-files/shared_table_b/shared_table_b.xlsx
+++ b/form-files/shared_table_b/shared_table_b.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="516" yWindow="480" windowWidth="14076" windowHeight="7884" activeTab="3"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="survey" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="choices" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="model" state="visible" r:id="rId5"/>
-    <sheet sheetId="4" name="settings" state="visible" r:id="rId6"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="model" sheetId="3" r:id="rId3"/>
+    <sheet name="settings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -145,80 +148,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -231,320 +184,617 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="1"/>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="2">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf fillId="3" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="3" applyFill="1"/>
-    <xf fillId="4" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="4" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.57" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="27.14"/>
-    <col min="2" customWidth="1" max="2" width="24.86"/>
-    <col min="3" customWidth="1" max="3" width="41.86"/>
-    <col min="4" customWidth="1" max="4" width="32.86"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="1" r="A1">
+    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" r="2" ht="18.0">
-      <c t="s" s="1" r="A2">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="C2">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" r="3" ht="18.0">
-      <c t="s" s="1" r="A3">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="C3">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" r="4" ht="18.0">
-      <c t="s" s="1" r="A4">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="C4">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c t="s" s="3" r="A1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c t="s" s="3" r="B1">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="3" r="C1">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" r="A2">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="C2">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" r="A3">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c t="s" r="C3">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4">
-      <c t="s" r="A4">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="C4">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c t="s" r="A5">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="B5">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c t="s" r="C5">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c t="s" r="A6">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="B6">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="C6">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="9.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="21.43"/>
-    <col min="2" customWidth="1" max="2" width="25.14"/>
-    <col min="4" customWidth="1" max="4" width="26.14"/>
-    <col min="5" customWidth="1" max="5" width="26.29"/>
-    <col min="6" customWidth="1" max="6" width="24.29"/>
-    <col min="7" customWidth="1" max="7" width="28.43"/>
-    <col min="8" customWidth="1" max="8" width="29.43"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" r="A2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" r="A3">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4">
-      <c t="s" r="A4">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="C4">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c t="s" r="D4">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c t="s" r="E4">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="F4">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="G4">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="H4">
+      <c r="H4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5">
-      <c t="s" r="A5">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="B5">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6">
-      <c t="s" r="A6">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="B6">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.57" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" customWidth="1" max="2" width="13.57"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="1" r="A1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" s="1" r="A2">
+    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c t="s" s="1" r="B2">
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" s="1" r="A3">
+    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c t="s" s="1" r="B3">
+      <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4">
-      <c t="s" s="1" r="A4">
+    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c s="1" r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="1" r="A5">
+      <c r="B4" s="1">
+        <v>20130408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
-      <c t="s" s="1" r="B5">
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/form-files/shared_table_b/shared_table_b.xlsx
+++ b/form-files/shared_table_b/shared_table_b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="480" windowWidth="14076" windowHeight="7884" activeTab="3"/>
+    <workbookView xWindow="6360" yWindow="3540" windowWidth="14076" windowHeight="7884"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>type</t>
   </si>
@@ -25,21 +25,12 @@
     <t>name</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>hint</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
     <t>Refrigerator id: {{refrigerator_id}}</t>
   </si>
   <si>
-    <t>select_one conditions</t>
-  </si>
-  <si>
     <t>refrigerator_condition</t>
   </si>
   <si>
@@ -55,9 +46,6 @@
     <t>What is the refrigerator's stock level?</t>
   </si>
   <si>
-    <t>list_name</t>
-  </si>
-  <si>
     <t>conditions</t>
   </si>
   <si>
@@ -76,27 +64,6 @@
     <t>Terrible</t>
   </si>
   <si>
-    <t>schema.type</t>
-  </si>
-  <si>
-    <t>schema.name</t>
-  </si>
-  <si>
-    <t>schema.elementType</t>
-  </si>
-  <si>
-    <t>schema.properties.latitude.type</t>
-  </si>
-  <si>
-    <t>schema.properties.longitude.type</t>
-  </si>
-  <si>
-    <t>schema.properties.altitude.type</t>
-  </si>
-  <si>
-    <t>schema.properties.accuracy.type</t>
-  </si>
-  <si>
     <t>refrigerator_id</t>
   </si>
   <si>
@@ -118,9 +85,6 @@
     <t>geopoint</t>
   </si>
   <si>
-    <t>setting</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -139,17 +103,56 @@
     <t>form_version</t>
   </si>
   <si>
-    <t>form_title</t>
-  </si>
-  <si>
     <t>Refrigerator information update form</t>
+  </si>
+  <si>
+    <t>choice_list_name</t>
+  </si>
+  <si>
+    <t>data_value</t>
+  </si>
+  <si>
+    <t>display.text</t>
+  </si>
+  <si>
+    <t>display.hint</t>
+  </si>
+  <si>
+    <t>elementType</t>
+  </si>
+  <si>
+    <t>properties.latitude.type</t>
+  </si>
+  <si>
+    <t>properties.longitude.type</t>
+  </si>
+  <si>
+    <t>properties.altitude.type</t>
+  </si>
+  <si>
+    <t>properties.accuracy.type</t>
+  </si>
+  <si>
+    <t>setting_name</t>
+  </si>
+  <si>
+    <t>display.title</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>values_list</t>
+  </si>
+  <si>
+    <t>select_one</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -159,11 +162,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,13 +185,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,60 +498,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="41.88671875" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
+    <col min="1" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="1"/>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -560,74 +573,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -637,103 +652,99 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -743,55 +754,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>33</v>
+    <row r="1" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>20130408</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>41</v>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
